--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -140,9 +140,6 @@
     <t>Bonus</t>
   </si>
   <si>
-    <t>Para durumu her hafta Salı günü güncellenmektedir.</t>
-  </si>
-  <si>
     <t>Erken Teslim (Gün)</t>
   </si>
   <si>
@@ -152,7 +149,10 @@
     <t xml:space="preserve">       PARA DURUMU</t>
   </si>
   <si>
-    <t xml:space="preserve">               BAŞLANGIÇ</t>
+    <t xml:space="preserve">                                     Para durumu her hafta güncellenmektedir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BAŞLANGIÇ</t>
   </si>
 </sst>
 </file>
@@ -411,8 +411,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,18 +444,21 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,11 +468,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -489,6 +497,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -551,12 +565,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -576,18 +584,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo5" displayName="Tablo5" ref="A2:I9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo5" displayName="Tablo5" ref="A2:I9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="HAFTA" dataDxfId="20"/>
-    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="19"/>
-    <tableColumn id="3" name="Tasarımcı" dataDxfId="18"/>
-    <tableColumn id="4" name="Sistem Analisti" dataDxfId="17"/>
-    <tableColumn id="5" name="YGU - 1" dataDxfId="16"/>
-    <tableColumn id="6" name="YGU - 2" dataDxfId="15"/>
-    <tableColumn id="7" name="Test Uzmanı" dataDxfId="14"/>
-    <tableColumn id="8" name="Transfer" dataDxfId="13"/>
-    <tableColumn id="9" name="Toplam" dataDxfId="12">
+    <tableColumn id="1" name="HAFTA" dataDxfId="22"/>
+    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="21"/>
+    <tableColumn id="3" name="Tasarımcı" dataDxfId="20"/>
+    <tableColumn id="4" name="Sistem Analisti" dataDxfId="19"/>
+    <tableColumn id="5" name="YGU - 1" dataDxfId="18"/>
+    <tableColumn id="6" name="YGU - 2" dataDxfId="17"/>
+    <tableColumn id="7" name="Test Uzmanı" dataDxfId="16"/>
+    <tableColumn id="8" name="Transfer" dataDxfId="15"/>
+    <tableColumn id="9" name="Toplam" dataDxfId="14">
       <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -596,18 +604,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo578" displayName="Tablo578" ref="A12:G19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo578" displayName="Tablo578" ref="A12:G19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A12:G19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="HAFTA" dataDxfId="9"/>
-    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="8"/>
-    <tableColumn id="10" name="Erken Teslim (Gün)" dataDxfId="7"/>
-    <tableColumn id="3" name="Bonus" dataDxfId="6"/>
-    <tableColumn id="11" name="Erken Teslim (Ücret)" dataDxfId="5">
+    <tableColumn id="1" name="HAFTA" dataDxfId="11"/>
+    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="10"/>
+    <tableColumn id="10" name="Erken Teslim (Gün)" dataDxfId="9"/>
+    <tableColumn id="3" name="Bonus" dataDxfId="8"/>
+    <tableColumn id="11" name="Erken Teslim (Ücret)" dataDxfId="7">
       <calculatedColumnFormula>QUOTIENT(B13 * C13 * D13,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="4"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="3">
+    <tableColumn id="12" name="Transfer" dataDxfId="6"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="5">
       <calculatedColumnFormula>SUM(B13,E13,F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -931,142 +939,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>21127696</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>5348971689</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>21127151</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>5439528775</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>21228319</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>5072210788</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>20926908</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>5379829973</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>21126834</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>5375998361</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>21127754</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>5364735068</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1080,450 +1088,474 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>10000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>6000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>6000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>4000</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>4000</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>4000</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I9" si="0">SUM(B3:H3)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
+      <c r="B4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
+      <c r="B5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="I7" s="13">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13:E19" si="1">QUOTIENT(B13 * C13 * D13,100)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ref="G13:G19" si="2">SUM(B13,E13,F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" ref="E13:E19" si="1">QUOTIENT(B13 * C13 * D13,100)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" ref="G13:G19" si="2">SUM(B13,E13,F13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:C28" si="3">C21 - I3 + G13</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="C23" s="10">
+        <f t="shared" si="3"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
         <v>3</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="C24" s="10">
+        <f t="shared" si="3"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="C25" s="10">
+        <f t="shared" si="3"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>5</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="C26" s="10">
+        <f t="shared" si="3"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
         <v>6</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="C27" s="10">
+        <f t="shared" si="3"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
-        <f>C21 - I3 + G13</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12">
-        <f>C22 - I4 + G14</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12">
-        <f>C23 - I5 + G15</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <v>4</v>
-      </c>
-      <c r="C25" s="12">
-        <f>C24 - I6 + G16</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12">
-        <f>C25 - I7 + G17</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <v>6</v>
-      </c>
-      <c r="C27" s="12">
-        <f>C26 - I8 + G18</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12">
-        <f>C27 - I9 + G19</f>
-        <v>66000</v>
+      <c r="C28" s="10">
+        <f t="shared" si="3"/>
+        <v>63000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="E31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -453,6 +453,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,18 +478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,12 +497,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -565,6 +559,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -584,18 +584,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo5" displayName="Tablo5" ref="A2:I9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo5" displayName="Tablo5" ref="A2:I9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A2:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="HAFTA" dataDxfId="22"/>
-    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="21"/>
-    <tableColumn id="3" name="Tasarımcı" dataDxfId="20"/>
-    <tableColumn id="4" name="Sistem Analisti" dataDxfId="19"/>
-    <tableColumn id="5" name="YGU - 1" dataDxfId="18"/>
-    <tableColumn id="6" name="YGU - 2" dataDxfId="17"/>
-    <tableColumn id="7" name="Test Uzmanı" dataDxfId="16"/>
-    <tableColumn id="8" name="Transfer" dataDxfId="15"/>
-    <tableColumn id="9" name="Toplam" dataDxfId="14">
+    <tableColumn id="1" name="HAFTA" dataDxfId="20"/>
+    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="19"/>
+    <tableColumn id="3" name="Tasarımcı" dataDxfId="18"/>
+    <tableColumn id="4" name="Sistem Analisti" dataDxfId="17"/>
+    <tableColumn id="5" name="YGU - 1" dataDxfId="16"/>
+    <tableColumn id="6" name="YGU - 2" dataDxfId="15"/>
+    <tableColumn id="7" name="Test Uzmanı" dataDxfId="14"/>
+    <tableColumn id="8" name="Transfer" dataDxfId="13"/>
+    <tableColumn id="9" name="Toplam" dataDxfId="12">
       <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -604,18 +604,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo578" displayName="Tablo578" ref="A12:G19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo578" displayName="Tablo578" ref="A12:G19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A12:G19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="HAFTA" dataDxfId="11"/>
-    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="10"/>
-    <tableColumn id="10" name="Erken Teslim (Gün)" dataDxfId="9"/>
-    <tableColumn id="3" name="Bonus" dataDxfId="8"/>
-    <tableColumn id="11" name="Erken Teslim (Ücret)" dataDxfId="7">
+    <tableColumn id="1" name="HAFTA" dataDxfId="9"/>
+    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="8"/>
+    <tableColumn id="10" name="Erken Teslim (Gün)" dataDxfId="7"/>
+    <tableColumn id="3" name="Bonus" dataDxfId="6"/>
+    <tableColumn id="11" name="Erken Teslim (Ücret)" dataDxfId="5">
       <calculatedColumnFormula>QUOTIENT(B13 * C13 * D13,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="6"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="5">
+    <tableColumn id="12" name="Transfer" dataDxfId="4"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="3">
       <calculatedColumnFormula>SUM(B13,E13,F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,10 +624,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tablo11" displayName="Tablo11" ref="C21:C28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tablo11" displayName="Tablo11" ref="C21:C28" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="C21:C28"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="1" name="100.000" dataDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>C21 - I3 + G13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,17 +1106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1241,16 +1241,30 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1301,15 +1315,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1376,7 +1390,9 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
         <v>65000</v>
@@ -1386,14 +1402,22 @@
       <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1476,14 +1500,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -1518,7 +1542,7 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1527,7 +1551,7 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,7 +1560,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,17 +1569,17 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="23"/>
+      <c r="E31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kar\OneDrive\GitHub - BBM487\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,10 +141,10 @@
     <t xml:space="preserve">  BAŞLANGIÇ</t>
   </si>
   <si>
-    <t xml:space="preserve">                                     Para durumu her hafta güncellenmektedir.</t>
-  </si>
-  <si>
     <t xml:space="preserve">       PARA DURUMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             Para durumu her hafta güncellenmektedir.</t>
   </si>
 </sst>
 </file>
@@ -282,12 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,6 +306,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,6 +328,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -356,18 +359,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -376,6 +367,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -405,9 +408,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -445,18 +445,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A2:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="HAFTA" dataDxfId="8"/>
-    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="7"/>
-    <tableColumn id="3" name="Tasarımcı" dataDxfId="6"/>
-    <tableColumn id="4" name="Sistem Analisti" dataDxfId="5"/>
-    <tableColumn id="5" name="YGU - 1" dataDxfId="4"/>
-    <tableColumn id="6" name="YGU - 2" dataDxfId="3"/>
-    <tableColumn id="7" name="Test Uzmanı" dataDxfId="2"/>
-    <tableColumn id="8" name="Transfer" dataDxfId="1"/>
-    <tableColumn id="9" name="Toplam" dataDxfId="0">
+    <tableColumn id="1" name="HAFTA" dataDxfId="23"/>
+    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="22"/>
+    <tableColumn id="3" name="Tasarımcı" dataDxfId="21"/>
+    <tableColumn id="4" name="Sistem Analisti" dataDxfId="20"/>
+    <tableColumn id="5" name="YGU - 1" dataDxfId="19"/>
+    <tableColumn id="6" name="YGU - 2" dataDxfId="18"/>
+    <tableColumn id="7" name="Test Uzmanı" dataDxfId="17"/>
+    <tableColumn id="8" name="Transfer" dataDxfId="16"/>
+    <tableColumn id="9" name="Toplam" dataDxfId="15">
       <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -465,23 +465,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A19:J33"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="HAFTA" dataDxfId="23"/>
-    <tableColumn id="7" name="Teslim" dataDxfId="22"/>
-    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="21"/>
-    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="20"/>
-    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="19"/>
-    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="18">
+    <tableColumn id="1" name="HAFTA" dataDxfId="12"/>
+    <tableColumn id="7" name="Teslim" dataDxfId="11"/>
+    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="10"/>
+    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="9"/>
+    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="8"/>
+    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="7">
       <calculatedColumnFormula>QUOTIENT(C20 * D20 * E20,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="17"/>
-    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="16">
+    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="6"/>
+    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="5">
       <calculatedColumnFormula>D36 * G20 / 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="15"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="14">
+    <tableColumn id="12" name="Transfer" dataDxfId="4"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="3">
       <calculatedColumnFormula>SUM(C20,F20,H20,I20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -490,10 +490,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="D36:D50" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="D36:D50" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D36:D50"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="13">
+    <tableColumn id="1" name="100.000" dataDxfId="0">
       <calculatedColumnFormula>D36 - I3 + J20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -776,11 +776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -875,33 +875,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="6" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="6" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="4" customWidth="1"/>
+    <col min="18" max="19" width="13.5703125" style="4" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,352 +918,366 @@
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>10000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>6000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>6000</v>
       </c>
-      <c r="E3" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="E3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I9" si="0">SUM(B3:H3)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>10000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>6000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>6000</v>
       </c>
-      <c r="E4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="E4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>10000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>6000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>6000</v>
       </c>
-      <c r="E5" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="E5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>10000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>6000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>6000</v>
       </c>
-      <c r="E6" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="E6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>10000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>6000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>6000</v>
       </c>
-      <c r="E7" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="E7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>10000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>6000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>6000</v>
       </c>
-      <c r="E8" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="E8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>10000</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>6000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>6000</v>
       </c>
-      <c r="E9" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="E9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
+      <c r="B10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" ref="I10:I16" si="1">SUM(B10:H10)</f>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1280,591 +1294,554 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:H33" si="2">D36 * G20 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" ref="J20:J26" si="3">SUM(C20,F20,H20,I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
         <v>10</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" ref="F20:F26" si="2">QUOTIENT(C20 * D20 * E20,100)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <f>D36 * G20 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" ref="J20:J26" si="3">SUM(C20,F20,H20,I20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
+        <f t="shared" ref="F20:F26" si="4">QUOTIENT(C21 * D21 * E21,100)</f>
+        <v>15000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <f>D37 * G21 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>65000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
         <v>10</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f>D38 * G22 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>10</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="G23" s="7">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7">
-        <f>D39 * G23 / 100</f>
         <v>6300</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>76300</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>10</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>10</v>
-      </c>
-      <c r="H24" s="7">
-        <f>D40 * G24 / 100</f>
         <v>10530</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>10530</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7">
-        <f>D41 * G25 / 100</f>
         <v>8183</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>8183</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>7</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7">
-        <f>D42 * G26 / 100</f>
         <v>5601.3</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="3"/>
         <v>5601.3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <f t="shared" ref="F27:F33" si="4">QUOTIENT(C27 * D27 * E27,100)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
-        <f>D43 * G27 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7">
-        <f t="shared" ref="J27:J33" si="5">SUM(C27,F27,H27,I27)</f>
-        <v>0</v>
+      <c r="C27" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F33" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>2761.43</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" ref="J27:J33" si="6">SUM(C27,F27,H27,I27)</f>
+        <v>152761.43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>9</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
-        <f>D44 * G28 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7">
-        <f t="shared" si="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>10</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
-        <f>D45 * G29 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7">
-        <f t="shared" si="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>11</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
-        <f>D46 * G30 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7">
-        <f t="shared" si="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>12</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
-        <f>D47 * G31 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7">
-        <f t="shared" si="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>13</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7">
-        <f>D48 * G32 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7">
-        <f t="shared" si="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>14</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
-        <f>D49 * G33 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7">
-        <f t="shared" si="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" ref="D37:D50" si="7">D36 - I3 + J20</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="7"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="8">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="7"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="7"/>
+        <v>105300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="7"/>
+        <v>81830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="9">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="7"/>
+        <v>56013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="8">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="7"/>
+        <v>27614.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="9">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="8">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="9">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="8">
+        <v>11</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="9">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="8">
+        <v>13</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="9">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="7"/>
+        <v>146375.72999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <f>D36 - I3 + J20</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7">
-        <f>D37 - I4 + J21</f>
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="10">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7">
-        <f>D38 - I5 + J22</f>
-        <v>63000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="11">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7">
-        <f>D39 - I6 + J23</f>
-        <v>105300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="10">
-        <v>5</v>
-      </c>
-      <c r="D41" s="7">
-        <f>D40 - I7 + J24</f>
-        <v>81830</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="11">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7">
-        <f>D41 - I8 + J25</f>
-        <v>56013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="10">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7">
-        <f>D42 - I9 + J26</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="11">
-        <v>8</v>
-      </c>
-      <c r="D44" s="7">
-        <f>D43 - I10 + J27</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="10">
-        <v>9</v>
-      </c>
-      <c r="D45" s="7">
-        <f>D44 - I11 + J28</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="11">
-        <v>10</v>
-      </c>
-      <c r="D46" s="7">
-        <f>D45 - I12 + J29</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="10">
-        <v>11</v>
-      </c>
-      <c r="D47" s="7">
-        <f>D46 - I13 + J30</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="11">
-        <v>12</v>
-      </c>
-      <c r="D48" s="7">
-        <f>D47 - I14 + J31</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="10">
-        <v>13</v>
-      </c>
-      <c r="D49" s="7">
-        <f>D48 - I15 + J32</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="11">
-        <v>14</v>
-      </c>
-      <c r="D50" s="7">
-        <f>D49 - I16 + J33</f>
-        <v>27614.3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kar\OneDrive\GitHub - BBM487\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kar\OneDrive\GitHub - BBM487\BBM487-20142-7-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,16 +1190,30 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ref="F20:F26" si="4">QUOTIENT(C21 * D21 * E21,100)</f>
+        <f t="shared" ref="F21:F23" si="4">QUOTIENT(C21 * D21 * E21,100)</f>
         <v>15000</v>
       </c>
       <c r="G21" s="5">
@@ -1545,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F33" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
+        <f t="shared" ref="F27:F28" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
@@ -1570,19 +1584,32 @@
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="C28" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
       <c r="H28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>14637.572999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
       <c r="J28" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>164637.573</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,7 +1816,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,7 +1825,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,7 +1834,7 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1816,7 +1843,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
@@ -1825,7 +1852,7 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
@@ -1834,7 +1861,7 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" si="7"/>
-        <v>146375.72999999998</v>
+        <v>277013.30299999996</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">

--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Roller" sheetId="1" r:id="rId1"/>
@@ -30,33 +30,15 @@
     <t>Proje Yöneticisi</t>
   </si>
   <si>
-    <t>Hüseyin Can Öcal</t>
-  </si>
-  <si>
     <t>Sistem Analisti</t>
   </si>
   <si>
-    <t>Samet Ayyıldız</t>
-  </si>
-  <si>
-    <t>Furkan Kara</t>
-  </si>
-  <si>
-    <t>Yusuf Gündüz</t>
-  </si>
-  <si>
     <t>Tasarımcı</t>
   </si>
   <si>
-    <t>Ferhat Salmanlı</t>
-  </si>
-  <si>
     <t>Test Uzmanı</t>
   </si>
   <si>
-    <t>Ensar Köseoğlu</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
@@ -102,9 +84,6 @@
     <t>Yazılım Geliştirme Uzmanı - 2</t>
   </si>
   <si>
-    <t>BBM 487 GRUP 2 ROLLER</t>
-  </si>
-  <si>
     <t>Bonus Yüzdesi (%)</t>
   </si>
   <si>
@@ -145,6 +124,27 @@
   </si>
   <si>
     <t xml:space="preserve">                                                             Para durumu her hafta güncellenmektedir.</t>
+  </si>
+  <si>
+    <t>ALİ CAN TAHMAZOĞLU</t>
+  </si>
+  <si>
+    <t>ABDULKERİM ERAY</t>
+  </si>
+  <si>
+    <t>MELİZ ERSOY</t>
+  </si>
+  <si>
+    <t>CEM VARLI</t>
+  </si>
+  <si>
+    <t>EMRE AKIN</t>
+  </si>
+  <si>
+    <t>SERACETTİN YAŞAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUP 7 </t>
   </si>
 </sst>
 </file>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,20 +777,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,65 +798,65 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>21127529</v>
+        <v>21127696</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>21126977</v>
+        <v>21228319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>21127314</v>
+        <v>21126834</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
-        <v>21127237</v>
+        <v>21127754</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>21027205</v>
+        <v>21127151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>21127606</v>
+        <v>20926908</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -919,31 +919,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1312,34 +1312,34 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="J19" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
         <v>50000</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
         <v>50000</v>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1495,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1547,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5">
         <v>150000</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5">
         <v>150000</v>
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1661,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1705,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1724,18 +1724,18 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D51" s="10"/>
     </row>

--- a/Mali Durum Çizelgesi.xlsx
+++ b/Mali Durum Çizelgesi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Proje Yöneticisi</t>
   </si>
@@ -145,13 +145,16 @@
   </si>
   <si>
     <t xml:space="preserve">GRUP 7 </t>
+  </si>
+  <si>
+    <t>PROJE SONU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +195,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -199,12 +210,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,6 +252,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -272,17 +282,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,7 +302,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -300,26 +314,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -328,13 +337,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -367,19 +376,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -440,7 +449,7 @@
     <tableColumn id="2" name="Kişi"/>
     <tableColumn id="3" name="Numara"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -456,7 +465,7 @@
     <tableColumn id="6" name="YGU - 2" dataDxfId="18"/>
     <tableColumn id="7" name="Test Uzmanı" dataDxfId="17"/>
     <tableColumn id="8" name="Transfer" dataDxfId="16"/>
-    <tableColumn id="9" name="Toplam" dataDxfId="15">
+    <tableColumn id="9" name="Toplam" dataDxfId="0">
       <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -465,23 +474,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A19:J33"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="HAFTA" dataDxfId="12"/>
-    <tableColumn id="7" name="Teslim" dataDxfId="11"/>
-    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="10"/>
-    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="9"/>
-    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="8"/>
-    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="7">
+    <tableColumn id="1" name="HAFTA" dataDxfId="13"/>
+    <tableColumn id="7" name="Teslim" dataDxfId="12"/>
+    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="11"/>
+    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="10"/>
+    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="9"/>
+    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="8">
       <calculatedColumnFormula>QUOTIENT(C20 * D20 * E20,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="6"/>
-    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="5">
+    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="7"/>
+    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="6">
       <calculatedColumnFormula>D36 * G20 / 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="4"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="3">
+    <tableColumn id="12" name="Transfer" dataDxfId="5"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="4">
       <calculatedColumnFormula>SUM(C20,F20,H20,I20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -490,10 +499,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="D36:D50" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="D36:D50" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="D36:D50"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="0">
+    <tableColumn id="1" name="100.000" dataDxfId="1">
       <calculatedColumnFormula>D36 - I3 + J20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -767,7 +776,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +785,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="12"/>
@@ -875,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,17 +914,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1220,16 +1229,29 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,17 +1319,17 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1617,21 +1639,31 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1646,15 +1678,9 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1668,15 +1694,9 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1690,15 +1710,9 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1712,15 +1726,9 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
@@ -1823,46 +1831,33 @@
       <c r="C46" s="9">
         <v>10</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="7"/>
-        <v>277013.30299999996</v>
+      <c r="D46" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" s="8">
         <v>11</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" si="7"/>
-        <v>277013.30299999996</v>
-      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="9">
         <v>12</v>
       </c>
-      <c r="D48" s="5">
-        <f t="shared" si="7"/>
-        <v>277013.30299999996</v>
-      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="8">
         <v>13</v>
       </c>
-      <c r="D49" s="5">
-        <f t="shared" si="7"/>
-        <v>277013.30299999996</v>
-      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="9">
         <v>14</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" si="7"/>
-        <v>277013.30299999996</v>
-      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
